--- a/dataset_v1/task_sheet_answers/ExpenseReport/4_ExpenseReport/4_ExpenseReport_gt1.xlsx
+++ b/dataset_v1/task_sheet_answers/ExpenseReport/4_ExpenseReport/4_ExpenseReport_gt1.xlsx
@@ -1,160 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ActionTransformer\Excel_data\example_sheets_part1\task_sheet_answers\ExpenseReport\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632D2504-47CE-46E7-9E2F-B87EA079E300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9876" windowHeight="12360" xr2:uid="{C8C070D2-7E88-4DE6-A485-71C7DFD2564F}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12360" windowWidth="9876" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Vendor/Client</t>
-  </si>
-  <si>
-    <t>Expense Account</t>
-  </si>
-  <si>
-    <t>Subtotal</t>
-  </si>
-  <si>
-    <t>Tax</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Client A</t>
-  </si>
-  <si>
-    <t>Gas</t>
-  </si>
-  <si>
-    <t>Meals</t>
-  </si>
-  <si>
-    <t>Company A</t>
-  </si>
-  <si>
-    <t>Car Repairs</t>
-  </si>
-  <si>
-    <t>Client B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Company B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Material Purchase</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reception</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hiring</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flight tickets</t>
-  </si>
-  <si>
-    <t>Accommodation</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="[$-1009]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="179" formatCode="\$#,##0.00"/>
+    <numFmt formatCode="[$-1009]d\-mmm\-yy;@" numFmtId="164"/>
+    <numFmt formatCode="&quot;$&quot;#,##0.00" numFmtId="165"/>
+    <numFmt formatCode="\$#,##0.00" numFmtId="166"/>
+    <numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" numFmtId="167"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.5999938962981048"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -190,38 +115,48 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="167"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="10">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" shrinkToFit="1" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" shrinkToFit="1" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="40% - Accent1 2" xfId="2" xr:uid="{606EA654-843B-4BCD-8A3F-BBAAC62DFBDE}"/>
-    <cellStyle name="Currency 2" xfId="3" xr:uid="{DEF12F13-BA7A-489C-BD6E-9C3389FE5581}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{5115F5DB-8E5A-4AF3-8779-AC5273943564}"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="40% - Accent1 2" xfId="2"/>
+    <cellStyle name="Currency 2" xfId="3"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -232,15 +167,75 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -540,417 +535,524 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A9B691-D687-411E-814E-2AA702217B5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="6" width="12.88671875"/>
+    <col customWidth="1" max="2" min="2" style="6" width="13.5546875"/>
+    <col customWidth="1" max="3" min="3" style="6" width="17.6640625"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="6" width="9.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Vendor/Client</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Expense Account</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Subtotal</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="n">
         <v>43820</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Client A</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="n">
         <v>313</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="E2" s="8" t="n"/>
+      <c r="F2" s="9" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="n">
         <v>43820</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Client A</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Meals</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="n">
         <v>134</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="E3" s="8" t="n"/>
+      <c r="F3" s="9" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="n">
         <v>43824</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Company A</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Car Repairs</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="n">
         <v>1205</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="E4" s="8" t="n"/>
+      <c r="F4" s="9" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="n">
         <v>43825</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Client B</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>Material Purchase</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="n">
         <v>1629</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="E5" s="8" t="n"/>
+      <c r="F5" s="9" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="n">
         <v>43826</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Client B</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Meals</t>
+        </is>
+      </c>
+      <c r="D6" s="8" t="n">
         <v>1126</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E6" s="8" t="n"/>
+      <c r="F6" s="9" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="n">
         <v>43827</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Client B</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Car Repairs</t>
+        </is>
+      </c>
+      <c r="D7" s="8" t="n">
         <v>1597</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="E7" s="8" t="n"/>
+      <c r="F7" s="9" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="n">
         <v>43828</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Client A</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr">
+        <is>
+          <t>Reception</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="n">
         <v>792</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="E8" s="8" t="n"/>
+      <c r="F8" s="9" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="n">
         <v>43829</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Company B</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr">
+        <is>
+          <t>Flight tickets</t>
+        </is>
+      </c>
+      <c r="D9" s="8" t="n">
         <v>1018</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="E9" s="8" t="n"/>
+      <c r="F9" s="9" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="n">
         <v>43830</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Company A</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="n">
         <v>263</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="E10" s="8" t="n"/>
+      <c r="F10" s="9" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="n">
         <v>43831</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Client B</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Meals</t>
+        </is>
+      </c>
+      <c r="D11" s="8" t="n">
         <v>1697</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="E11" s="8" t="n"/>
+      <c r="F11" s="9" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="n">
         <v>43832</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Client B</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Car Repairs</t>
+        </is>
+      </c>
+      <c r="D12" s="8" t="n">
         <v>1954</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="E12" s="8" t="n"/>
+      <c r="F12" s="9" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="n">
         <v>43833</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Client B</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr">
+        <is>
+          <t>Material Purchase</t>
+        </is>
+      </c>
+      <c r="D13" s="8" t="n">
         <v>1681</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="E13" s="8" t="n"/>
+      <c r="F13" s="9" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="n">
         <v>43834</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Client B</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr">
+        <is>
+          <t>Hiring</t>
+        </is>
+      </c>
+      <c r="D14" s="8" t="n">
         <v>1019</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="E14" s="8" t="n"/>
+      <c r="F14" s="9" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="n">
         <v>43835</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Client A</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr">
+        <is>
+          <t>Accommodation</t>
+        </is>
+      </c>
+      <c r="D15" s="8" t="n">
         <v>157</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="E15" s="8" t="n"/>
+      <c r="F15" s="9" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="n">
         <v>43836</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Company B</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr">
+        <is>
+          <t>Reception</t>
+        </is>
+      </c>
+      <c r="D16" s="8" t="n">
         <v>828</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="E16" s="8" t="n"/>
+      <c r="F16" s="9" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="n">
         <v>43837</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Company A</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr">
+        <is>
+          <t>Flight tickets</t>
+        </is>
+      </c>
+      <c r="D17" s="8" t="n">
         <v>136</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="E17" s="8" t="n"/>
+      <c r="F17" s="9" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="n">
         <v>43838</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Client A</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="D18" s="8" t="n">
         <v>127</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="E18" s="8" t="n"/>
+      <c r="F18" s="9" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="n">
         <v>43839</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Company A</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>Meals</t>
+        </is>
+      </c>
+      <c r="D19" s="8" t="n">
         <v>1529</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="E19" s="8" t="n"/>
+      <c r="F19" s="9" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="n">
         <v>43840</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Client B</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>Car Repairs</t>
+        </is>
+      </c>
+      <c r="D20" s="8" t="n">
         <v>1755</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="E20" s="8" t="n"/>
+      <c r="F20" s="9" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="n">
         <v>43841</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="4">
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Company B</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr">
+        <is>
+          <t>Material Purchase</t>
+        </is>
+      </c>
+      <c r="D21" s="8" t="n">
         <v>171</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="E21" s="8" t="n"/>
+      <c r="F21" s="9" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="n">
         <v>43842</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Company A</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr">
+        <is>
+          <t>Hiring</t>
+        </is>
+      </c>
+      <c r="D22" s="8" t="n">
         <v>1325</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="E22" s="8" t="n"/>
+      <c r="F22" s="9" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="n">
         <v>43843</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Client A</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="inlineStr">
+        <is>
+          <t>Accommodation</t>
+        </is>
+      </c>
+      <c r="D23" s="8" t="n">
         <v>1841</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="E23" s="8" t="n"/>
+      <c r="F23" s="9" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="n">
         <v>43844</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="4">
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Client A</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>Meals</t>
+        </is>
+      </c>
+      <c r="D24" s="8" t="n">
         <v>1285</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5"/>
+      <c r="E24" s="8" t="n"/>
+      <c r="F24" s="9" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B2:B24">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule dxfId="0" priority="1" type="expression">
       <formula>ISNUMBER(FIND("Client", $B2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>